--- a/example2/settings.xlsx
+++ b/example2/settings.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504F15DF-8791-4DF8-B96D-8AE43304C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="29450" windowHeight="17810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2244" yWindow="2244" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>boxplots</t>
   </si>
@@ -94,36 +93,18 @@
     <t>path of fasta file if indexing is set to TRUE</t>
   </si>
   <si>
-    <t>number of bases to be clipped at 5' end (if in paired mode applied to the firts strand) if trimming is set to TRUE</t>
-  </si>
-  <si>
-    <t>number of bases to be clipped at 3' end (if in paired mode applied to the firts strand) if trimming is set to TRUE</t>
-  </si>
-  <si>
     <t>number of bases to be clipped at 5' end in the second strand if trimming is set to TRUE and mode is set to paired</t>
   </si>
   <si>
     <t>number of bases to be clipped at 3' end in the second strand if trimming is set to TRUE and mode is set to paired</t>
   </si>
   <si>
-    <t>single or paired if alignment or trimming is set ot TRUE</t>
-  </si>
-  <si>
-    <t>name of genes that must be rapresented in boxplots (1 in each column)</t>
-  </si>
-  <si>
     <t>heatmaps</t>
   </si>
   <si>
-    <t>name of genes that must be rapresented in heatmaps (1 in each column)</t>
-  </si>
-  <si>
     <t>BP, MF or CC</t>
   </si>
   <si>
-    <t>number of top gene ontology terms rapresented</t>
-  </si>
-  <si>
     <t>threshold of fold change to consider a gene significant (use . to separate decimals)</t>
   </si>
   <si>
@@ -133,15 +114,6 @@
     <t>PCA</t>
   </si>
   <si>
-    <t>number of PCA components to be rapresented (it must be less or equal to the number of samples)</t>
-  </si>
-  <si>
-    <t>gene ontology terms (of the corresponding GO_type in the form GO:number) that must be rapresented in the enrichment plots (1 in each column)</t>
-  </si>
-  <si>
-    <t>pathways names (with the official pathway id) that must be rapresented in pathview (1 in each column)</t>
-  </si>
-  <si>
     <t>added_genes</t>
   </si>
   <si>
@@ -175,9 +147,6 @@
     <t>adapter2</t>
   </si>
   <si>
-    <t>adapter sequence to be trimmed  (if in paired mode applied to the firts strand) if trimming is set to TRUE</t>
-  </si>
-  <si>
     <t>adapter sequence to be trimmed in the second strand if trimming is set to TRUE and mode is set to paired</t>
   </si>
   <si>
@@ -233,12 +202,48 @@
   </si>
   <si>
     <t>Top2a</t>
+  </si>
+  <si>
+    <t>adapter sequence to be trimmed  (if in paired mode applied to the first strand) if trimming is set to TRUE</t>
+  </si>
+  <si>
+    <t>number of bases to be clipped at 5' end (if in paired mode applied to the first strand) if trimming is set to TRUE</t>
+  </si>
+  <si>
+    <t>number of bases to be clipped at 3' end (if in paired mode applied to the first strand) if trimming is set to TRUE</t>
+  </si>
+  <si>
+    <t>single or paired if alignment or trimming is set to TRUE</t>
+  </si>
+  <si>
+    <t>name of genes that must be represented in boxplots (1 in each column)</t>
+  </si>
+  <si>
+    <t>name of genes that must be represented in heatmaps (1 in each column)</t>
+  </si>
+  <si>
+    <t>number of top gene ontology terms represented</t>
+  </si>
+  <si>
+    <t>number of PCA components to be represented (it must be less or equal to the number of samples)</t>
+  </si>
+  <si>
+    <t>gene ontology terms (of the corresponding GO_type in the form GO:number) that must be represented in the enrichment plots (1 in each column)</t>
+  </si>
+  <si>
+    <t>pathways names (with the official pathway id) that must be represented in pathview (1 in each column)</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>number of threads to be used for STAR indexing and alignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +357,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -424,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,23 +602,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="123.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -621,77 +626,77 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -699,10 +704,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -710,18 +715,18 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -729,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -737,43 +742,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -782,21 +787,21 @@
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -804,87 +809,87 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -892,48 +897,56 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -943,24 +956,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
